--- a/Part 1/image_tags.xlsx
+++ b/Part 1/image_tags.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofwestminster-my.sharepoint.com/personal/w1985751_westminster_ac_uk/Documents/Business Data Analytics/Level 5/Data Engineering/w1985751/DataEng/Part 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_F25DC773A252ABDACC1048AB911D4CDA5ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{082372AC-6936-497A-B25D-97D3238C19DB}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="11_F25DC773A252ABDACC1048AB911D4CDA5ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8203B834-9608-4C19-903F-0A8DC550F2E8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,33 +96,6 @@
     <t>ImageId</t>
   </si>
   <si>
-    <t>image_1</t>
-  </si>
-  <si>
-    <t>image_2</t>
-  </si>
-  <si>
-    <t>image_3</t>
-  </si>
-  <si>
-    <t>image_4</t>
-  </si>
-  <si>
-    <t>image_5</t>
-  </si>
-  <si>
-    <t>image_6</t>
-  </si>
-  <si>
-    <t>image_7</t>
-  </si>
-  <si>
-    <t>image_8</t>
-  </si>
-  <si>
-    <t>image_9</t>
-  </si>
-  <si>
     <t>image_10</t>
   </si>
   <si>
@@ -373,6 +346,33 @@
   </si>
   <si>
     <t>rabbit eating</t>
+  </si>
+  <si>
+    <t>image_01</t>
+  </si>
+  <si>
+    <t>image_02</t>
+  </si>
+  <si>
+    <t>image_03</t>
+  </si>
+  <si>
+    <t>image_04</t>
+  </si>
+  <si>
+    <t>image_05</t>
+  </si>
+  <si>
+    <t>image_06</t>
+  </si>
+  <si>
+    <t>image_07</t>
+  </si>
+  <si>
+    <t>image_08</t>
+  </si>
+  <si>
+    <t>image_09</t>
   </si>
 </sst>
 </file>
@@ -702,16 +702,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -719,557 +719,557 @@
         <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
         <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
         <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
         <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s">
         <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B42" t="s">
         <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B45" t="s">
         <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B46" t="s">
         <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B47" t="s">
         <v>19</v>
       </c>
       <c r="C47" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B48" t="s">
         <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B49" t="s">
         <v>20</v>
       </c>
       <c r="C49" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B51" t="s">
         <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/Part 1/image_tags.xlsx
+++ b/Part 1/image_tags.xlsx
@@ -702,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Part 1/image_tags.xlsx
+++ b/Part 1/image_tags.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofwestminster-my.sharepoint.com/personal/w1985751_westminster_ac_uk/Documents/Business Data Analytics/Level 5/Data Engineering/w1985751/DataEng/Part 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="11_F25DC773A252ABDACC1048AB911D4CDA5ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8203B834-9608-4C19-903F-0A8DC550F2E8}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="11_F25DC773A252ABDACC1048AB911D4CDA5ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{635FA487-10D9-4789-80A0-A1063AC0D54B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="17880" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,70 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="116">
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>bull</t>
-  </si>
-  <si>
-    <t>duckling</t>
-  </si>
-  <si>
-    <t>elephant</t>
-  </si>
-  <si>
-    <t>giraffe</t>
-  </si>
-  <si>
-    <t>hedgehog</t>
-  </si>
-  <si>
-    <t>leopard</t>
-  </si>
-  <si>
-    <t>chimpanzee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tiger </t>
-  </si>
-  <si>
-    <t>peacock</t>
-  </si>
-  <si>
-    <t>jellyfish</t>
-  </si>
-  <si>
-    <t>lion</t>
-  </si>
-  <si>
-    <t>monkey</t>
-  </si>
-  <si>
-    <t>fox</t>
-  </si>
-  <si>
-    <t>parrot</t>
-  </si>
-  <si>
-    <t>moose</t>
-  </si>
-  <si>
-    <t>rabbit</t>
-  </si>
-  <si>
-    <t>woodpecker</t>
-  </si>
-  <si>
-    <t>tiger</t>
-  </si>
-  <si>
-    <t>turtle</t>
-  </si>
-  <si>
-    <t>monkeys</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="115">
   <si>
     <t>Tags</t>
   </si>
@@ -373,6 +310,66 @@
   </si>
   <si>
     <t>image_09</t>
+  </si>
+  <si>
+    <t>bull, mammal</t>
+  </si>
+  <si>
+    <t>bird, avian</t>
+  </si>
+  <si>
+    <t>duckling, avian</t>
+  </si>
+  <si>
+    <t>elephant, mammal</t>
+  </si>
+  <si>
+    <t>giraffe, mammal</t>
+  </si>
+  <si>
+    <t>hedgehog, mammal</t>
+  </si>
+  <si>
+    <t>leopard, mammal</t>
+  </si>
+  <si>
+    <t>chimpanzee, mammal</t>
+  </si>
+  <si>
+    <t>tiger, mammal</t>
+  </si>
+  <si>
+    <t>peacock, avian</t>
+  </si>
+  <si>
+    <t>jellyfish, invertebrate</t>
+  </si>
+  <si>
+    <t>lion, mammal</t>
+  </si>
+  <si>
+    <t>monkey, mammal</t>
+  </si>
+  <si>
+    <t>fox, mammal</t>
+  </si>
+  <si>
+    <t>parrot, avian</t>
+  </si>
+  <si>
+    <t>moose, mammal</t>
+  </si>
+  <si>
+    <t>rabbit, mammal</t>
+  </si>
+  <si>
+    <t>woodpecker, avian</t>
+  </si>
+  <si>
+    <t>turtle, reptile</t>
+  </si>
+  <si>
+    <t>monkeys, mammal</t>
   </si>
 </sst>
 </file>
@@ -703,7 +700,7 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -713,563 +710,563 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="C33" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="C38" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="C39" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="C40" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="C42" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="C43" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="C44" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="C45" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="C46" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="C47" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="C48" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="C49" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="C50" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="C51" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
